--- a/data/fungicide-sensitivity-2019_exp-01_mefenoxam.xlsx
+++ b/data/fungicide-sensitivity-2019_exp-01_mefenoxam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\masters_projects\phytophthora\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A87733-B133-4C6E-BEB5-533AF65EA2CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAEC88E-FE82-4429-B54E-1014519F67CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,313 +451,313 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>32.69</v>
+        <v>7.74</v>
       </c>
       <c r="E2">
-        <v>34.450000000000003</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <v>33.93</v>
+        <v>45.03</v>
       </c>
       <c r="E3">
-        <v>33.64</v>
+        <v>42.23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
-        <v>33.15</v>
+        <v>44.71</v>
       </c>
       <c r="E4">
-        <v>33.26</v>
+        <v>42.49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>40.200000000000003</v>
+        <v>43.34</v>
       </c>
       <c r="E5">
-        <v>41</v>
+        <v>41.72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0.01</v>
       </c>
       <c r="D6">
-        <v>37.24</v>
+        <v>43.19</v>
       </c>
       <c r="E6">
-        <v>37.25</v>
+        <v>43.18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>39.25</v>
+        <v>43.08</v>
       </c>
       <c r="E7">
-        <v>39.479999999999997</v>
+        <v>42.45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>22.78</v>
+        <v>42.91</v>
       </c>
       <c r="E8">
-        <v>23.26</v>
+        <v>38.369999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>23.91</v>
+        <v>42.57</v>
       </c>
       <c r="E9">
-        <v>21.36</v>
+        <v>40.369999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D10">
-        <v>21.37</v>
+        <v>42.4</v>
       </c>
       <c r="E10">
-        <v>19.82</v>
+        <v>43.01</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <v>9.65</v>
+        <v>42.28</v>
       </c>
       <c r="E11">
-        <v>8.91</v>
+        <v>42.72</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>7.93</v>
+        <v>41.87</v>
       </c>
       <c r="E12">
-        <v>7.4</v>
+        <v>38.25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
-        <v>9.41</v>
+        <v>41.84</v>
       </c>
       <c r="E13">
-        <v>9.0399999999999991</v>
+        <v>40.119999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>5.2</v>
+        <v>41.78</v>
       </c>
       <c r="E14">
-        <v>5.24</v>
+        <v>41.19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="D15">
-        <v>5.7</v>
+        <v>41.58</v>
       </c>
       <c r="E15">
-        <v>5.88</v>
+        <v>41.95</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>6.02</v>
+        <v>41.47</v>
       </c>
       <c r="E16">
-        <v>6.93</v>
+        <v>41.91</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>42.18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>40.909999999999997</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>40.369999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -766,112 +766,112 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>40.380000000000003</v>
+        <v>40.729999999999997</v>
       </c>
       <c r="E20">
-        <v>38.21</v>
+        <v>39.14</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D21">
-        <v>39.71</v>
+        <v>40.67</v>
       </c>
       <c r="E21">
-        <v>40.46</v>
+        <v>42.58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D22">
-        <v>42.91</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="E22">
-        <v>38.369999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>41.84</v>
+        <v>40.65</v>
       </c>
       <c r="E23">
-        <v>40.119999999999997</v>
+        <v>40.99</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>42.4</v>
+        <v>40.590000000000003</v>
       </c>
       <c r="E24">
-        <v>43.01</v>
+        <v>41.09</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
         <v>0.01</v>
       </c>
       <c r="D25">
-        <v>37.97</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="E25">
-        <v>37.090000000000003</v>
+        <v>40.49</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>20.67</v>
+        <v>40.47</v>
       </c>
       <c r="E26">
-        <v>21.33</v>
+        <v>41.76</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -879,135 +879,135 @@
         <v>2</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>19.27</v>
+        <v>40.380000000000003</v>
       </c>
       <c r="E27">
-        <v>19.25</v>
+        <v>38.21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D28">
-        <v>20.38</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E28">
-        <v>21.29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>9.5500000000000007</v>
+        <v>40.1</v>
       </c>
       <c r="E29">
-        <v>9.01</v>
+        <v>40.85</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D30">
-        <v>9.1300000000000008</v>
+        <v>40.020000000000003</v>
       </c>
       <c r="E30">
-        <v>9.15</v>
+        <v>39.03</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D31">
-        <v>10.050000000000001</v>
+        <v>39.99</v>
       </c>
       <c r="E31">
-        <v>9.8800000000000008</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>7.2</v>
+        <v>39.96</v>
       </c>
       <c r="E32">
-        <v>6.94</v>
+        <v>41.71</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="D33">
-        <v>5.7</v>
+        <v>39.869999999999997</v>
       </c>
       <c r="E33">
-        <v>5.28</v>
+        <v>41.37</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>9.24</v>
+        <v>39.74</v>
       </c>
       <c r="E34">
-        <v>6.66</v>
+        <v>39.43</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1015,89 +1015,89 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>6.62</v>
+        <v>39.71</v>
       </c>
       <c r="E35">
-        <v>5.57</v>
+        <v>40.46</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>6.43</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="E36">
-        <v>5.5</v>
+        <v>42.26</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D37">
-        <v>4.49</v>
+        <v>39.64</v>
       </c>
       <c r="E37">
-        <v>4.2699999999999996</v>
+        <v>40.090000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>41.47</v>
+        <v>39.630000000000003</v>
       </c>
       <c r="E38">
-        <v>41.91</v>
+        <v>39.54</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D39">
-        <v>41.78</v>
+        <v>39.5</v>
       </c>
       <c r="E39">
-        <v>41.19</v>
+        <v>41.94</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>39.33</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="E40">
-        <v>38.090000000000003</v>
+        <v>39.32</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1117,38 +1117,38 @@
         <v>3</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>41.58</v>
+        <v>39.33</v>
       </c>
       <c r="E41">
-        <v>41.95</v>
+        <v>38.090000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>0.01</v>
       </c>
       <c r="D42">
-        <v>41.2</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="E42">
-        <v>42.18</v>
+        <v>38.79</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1157,129 +1157,129 @@
         <v>0.01</v>
       </c>
       <c r="D43">
-        <v>38.18</v>
+        <v>39.25</v>
       </c>
       <c r="E43">
-        <v>38.71</v>
+        <v>39.479999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>21.66</v>
+        <v>39.06</v>
       </c>
       <c r="E44">
-        <v>21.14</v>
+        <v>39.049999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D45">
-        <v>22.27</v>
+        <v>39.03</v>
       </c>
       <c r="E45">
-        <v>21.52</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D46">
-        <v>19.05</v>
+        <v>38.99</v>
       </c>
       <c r="E46">
-        <v>19.7</v>
+        <v>37.56</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>8.34</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="E47">
-        <v>7.67</v>
+        <v>39.119999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>9.39</v>
+        <v>38.76</v>
       </c>
       <c r="E48">
-        <v>9.3699999999999992</v>
+        <v>38.11</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D49">
-        <v>7.98</v>
+        <v>38.74</v>
       </c>
       <c r="E49">
-        <v>7.91</v>
+        <v>37.590000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="D50">
-        <v>8.4</v>
+        <v>38.58</v>
       </c>
       <c r="E50">
-        <v>6.47</v>
+        <v>38.590000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1287,407 +1287,407 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="D51">
-        <v>5.36</v>
+        <v>38.18</v>
       </c>
       <c r="E51">
-        <v>7.44</v>
+        <v>38.71</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="D52">
-        <v>7.87</v>
+        <v>38.020000000000003</v>
       </c>
       <c r="E52">
-        <v>6.66</v>
+        <v>38.74</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D53">
-        <v>5.52</v>
+        <v>37.97</v>
       </c>
       <c r="E53">
-        <v>5.21</v>
+        <v>37.090000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>4.84</v>
+        <v>37.9</v>
       </c>
       <c r="E54">
-        <v>5.01</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>37.630000000000003</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>37.630000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>40.590000000000003</v>
+        <v>37.619999999999997</v>
       </c>
       <c r="E56">
-        <v>41.09</v>
+        <v>36.22</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D57">
-        <v>42.57</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="E57">
-        <v>40.369999999999997</v>
+        <v>37.49</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D58">
-        <v>43.34</v>
+        <v>37.24</v>
       </c>
       <c r="E58">
-        <v>41.72</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>40.67</v>
+        <v>37.24</v>
       </c>
       <c r="E59">
-        <v>42.58</v>
+        <v>36.26</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>39.99</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="E60">
-        <v>41.9</v>
+        <v>37.549999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>0.01</v>
       </c>
       <c r="D61">
-        <v>39.03</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="E61">
-        <v>40.700000000000003</v>
+        <v>37.21</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>19.97</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="E62">
-        <v>18.45</v>
+        <v>37.090000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D63">
-        <v>17.37</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E63">
-        <v>17.68</v>
+        <v>34.700000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D64">
-        <v>16.7</v>
+        <v>35.979999999999997</v>
       </c>
       <c r="E64">
-        <v>17.66</v>
+        <v>37.39</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D65">
-        <v>9.8699999999999992</v>
+        <v>35.65</v>
       </c>
       <c r="E65">
-        <v>8.2799999999999994</v>
+        <v>35.619999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D66">
-        <v>8.7899999999999991</v>
+        <v>35.5</v>
       </c>
       <c r="E66">
-        <v>8.6999999999999993</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D67">
-        <v>7.83</v>
+        <v>35.4</v>
       </c>
       <c r="E67">
-        <v>7.27</v>
+        <v>35.229999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="D68">
-        <v>6.5</v>
+        <v>35.29</v>
       </c>
       <c r="E68">
-        <v>6.24</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>5.44</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E69">
-        <v>5.97</v>
+        <v>35.21</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="D70">
-        <v>5.72</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="E70">
-        <v>6.49</v>
+        <v>35.119999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>5.04</v>
+        <v>35.04</v>
       </c>
       <c r="E71">
-        <v>5.07</v>
+        <v>34.96</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D72">
-        <v>4.83</v>
+        <v>34.9</v>
       </c>
       <c r="E72">
-        <v>5.51</v>
+        <v>34.409999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D73">
-        <v>5.91</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="E73">
-        <v>5.98</v>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D74">
-        <v>37.24</v>
+        <v>34.58</v>
       </c>
       <c r="E74">
-        <v>36.26</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -1695,543 +1695,543 @@
         <v>5</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>41.87</v>
+        <v>34.57</v>
       </c>
       <c r="E75">
-        <v>38.25</v>
+        <v>34.549999999999997</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D76">
-        <v>34.57</v>
+        <v>34.49</v>
       </c>
       <c r="E76">
-        <v>34.549999999999997</v>
+        <v>34.51</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>43.19</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="E77">
-        <v>43.18</v>
+        <v>32.630000000000003</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78">
         <v>0.01</v>
       </c>
       <c r="D78">
-        <v>39.5</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="E78">
-        <v>41.94</v>
+        <v>34.46</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>39.869999999999997</v>
+        <v>33.93</v>
       </c>
       <c r="E79">
-        <v>41.37</v>
+        <v>33.64</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D80">
-        <v>24.75</v>
+        <v>33.9</v>
       </c>
       <c r="E80">
-        <v>23.39</v>
+        <v>35.479999999999997</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D81">
-        <v>22.71</v>
+        <v>33.67</v>
       </c>
       <c r="E81">
-        <v>22.08</v>
+        <v>33.64</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>23.9</v>
+        <v>33.64</v>
       </c>
       <c r="E82">
-        <v>21.29</v>
+        <v>34.090000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>18.739999999999998</v>
+        <v>33.64</v>
       </c>
       <c r="E83">
-        <v>17.59</v>
+        <v>33.630000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D84">
-        <v>16.62</v>
+        <v>33.58</v>
       </c>
       <c r="E84">
-        <v>16.649999999999999</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>15.71</v>
+        <v>33.409999999999997</v>
       </c>
       <c r="E85">
-        <v>13.2</v>
+        <v>32.74</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="D86">
-        <v>6.94</v>
+        <v>33.36</v>
       </c>
       <c r="E86">
-        <v>5.38</v>
+        <v>33.630000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>5.41</v>
+        <v>33.15</v>
       </c>
       <c r="E87">
-        <v>5.87</v>
+        <v>33.26</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
       <c r="C88">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>5.95</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="E88">
-        <v>5.97</v>
+        <v>33.020000000000003</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D89">
-        <v>6.32</v>
+        <v>33.020000000000003</v>
       </c>
       <c r="E89">
-        <v>4.93</v>
+        <v>32.93</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="D90">
-        <v>5.35</v>
+        <v>32.92</v>
       </c>
       <c r="E90">
-        <v>5.66</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>4.95</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E91">
-        <v>4.03</v>
+        <v>33.64</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>40.729999999999997</v>
+        <v>32.74</v>
       </c>
       <c r="E92">
-        <v>39.14</v>
+        <v>32.950000000000003</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>40.65</v>
+        <v>32.74</v>
       </c>
       <c r="E93">
-        <v>40.99</v>
+        <v>33.119999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>39.369999999999997</v>
+        <v>32.69</v>
       </c>
       <c r="E94">
-        <v>39.32</v>
+        <v>34.450000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>42.28</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="E95">
-        <v>42.72</v>
+        <v>32.44</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>40.020000000000003</v>
+        <v>32.29</v>
       </c>
       <c r="E96">
-        <v>39.03</v>
+        <v>34.79</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>39.299999999999997</v>
+        <v>32.06</v>
       </c>
       <c r="E97">
-        <v>38.79</v>
+        <v>31.91</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>20.04</v>
+        <v>30.64</v>
       </c>
       <c r="E98">
-        <v>21.41</v>
+        <v>31.54</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99">
         <v>0.05</v>
       </c>
       <c r="D99">
-        <v>24.77</v>
+        <v>29.9</v>
       </c>
       <c r="E99">
-        <v>22.58</v>
+        <v>28.66</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100">
         <v>0.05</v>
       </c>
       <c r="D100">
-        <v>21.79</v>
+        <v>28.78</v>
       </c>
       <c r="E100">
-        <v>22.03</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D101">
-        <v>9.9</v>
+        <v>28.7</v>
       </c>
       <c r="E101">
-        <v>9.31</v>
+        <v>28.69</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D102">
-        <v>8.31</v>
+        <v>28.42</v>
       </c>
       <c r="E102">
-        <v>8.1300000000000008</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D103">
-        <v>8.8699999999999992</v>
+        <v>27.87</v>
       </c>
       <c r="E103">
-        <v>8.84</v>
+        <v>26.97</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D104">
-        <v>6.57</v>
+        <v>27.49</v>
       </c>
       <c r="E104">
-        <v>6.22</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D105">
-        <v>6.38</v>
+        <v>27.02</v>
       </c>
       <c r="E105">
-        <v>4.7</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
       <c r="C106">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D106">
-        <v>6.44</v>
+        <v>25.57</v>
       </c>
       <c r="E106">
-        <v>6.96</v>
+        <v>27.22</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2239,174 +2239,174 @@
         <v>6</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D107">
-        <v>7.31</v>
+        <v>24.77</v>
       </c>
       <c r="E107">
-        <v>5.23</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D108">
-        <v>4.3099999999999996</v>
+        <v>24.75</v>
       </c>
       <c r="E108">
-        <v>4.8</v>
+        <v>23.39</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D109">
-        <v>4.3899999999999997</v>
+        <v>24.62</v>
       </c>
       <c r="E109">
-        <v>4.68</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D110">
-        <v>32.29</v>
+        <v>24.14</v>
       </c>
       <c r="E110">
-        <v>34.79</v>
+        <v>24.11</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D111">
-        <v>35.04</v>
+        <v>23.91</v>
       </c>
       <c r="E111">
-        <v>34.96</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D112">
-        <v>32.74</v>
+        <v>23.9</v>
       </c>
       <c r="E112">
-        <v>32.950000000000003</v>
+        <v>21.29</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D113">
-        <v>34.49</v>
+        <v>23.46</v>
       </c>
       <c r="E113">
-        <v>34.51</v>
+        <v>24.37</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D114">
-        <v>34.9</v>
+        <v>22.8</v>
       </c>
       <c r="E114">
-        <v>34.409999999999997</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D115">
-        <v>32.92</v>
+        <v>22.78</v>
       </c>
       <c r="E115">
-        <v>33.1</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>0.05</v>
       </c>
       <c r="D116">
-        <v>15.3</v>
+        <v>22.76</v>
       </c>
       <c r="E116">
-        <v>15.12</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -2415,304 +2415,304 @@
         <v>0.05</v>
       </c>
       <c r="D117">
-        <v>16.829999999999998</v>
+        <v>22.71</v>
       </c>
       <c r="E117">
-        <v>17.87</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D118">
-        <v>7.21</v>
+        <v>22.61</v>
       </c>
       <c r="E118">
-        <v>6.69</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D119">
-        <v>9.0500000000000007</v>
+        <v>22.5</v>
       </c>
       <c r="E119">
-        <v>7.99</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="C120">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D120">
-        <v>8.09</v>
+        <v>22.27</v>
       </c>
       <c r="E120">
-        <v>8.92</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <v>0.1</v>
       </c>
       <c r="D121">
-        <v>9.85</v>
+        <v>21.92</v>
       </c>
       <c r="E121">
-        <v>8.24</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D122">
-        <v>5.34</v>
+        <v>21.79</v>
       </c>
       <c r="E122">
-        <v>5.35</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D123">
-        <v>5.58</v>
+        <v>21.66</v>
       </c>
       <c r="E123">
-        <v>4.91</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B124">
         <v>3</v>
       </c>
       <c r="C124">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D124">
-        <v>5.83</v>
+        <v>21.37</v>
       </c>
       <c r="E124">
-        <v>5.94</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>20.67</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>20.38</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>21.29</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>20.190000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D128">
-        <v>36.770000000000003</v>
+        <v>20.04</v>
       </c>
       <c r="E128">
-        <v>37.549999999999997</v>
+        <v>21.41</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D129">
-        <v>36.450000000000003</v>
+        <v>19.97</v>
       </c>
       <c r="E129">
-        <v>37.090000000000003</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D130">
-        <v>37.630000000000003</v>
+        <v>19.93</v>
       </c>
       <c r="E130">
-        <v>37.630000000000003</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D131">
-        <v>35.29</v>
+        <v>19.52</v>
       </c>
       <c r="E131">
-        <v>35.25</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D132">
-        <v>33.58</v>
+        <v>19.47</v>
       </c>
       <c r="E132">
-        <v>36.75</v>
+        <v>20.89</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D133">
-        <v>35.5</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="E133">
-        <v>35.700000000000003</v>
+        <v>18.29</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C134">
         <v>0.05</v>
       </c>
       <c r="D134">
-        <v>13.04</v>
+        <v>19.38</v>
       </c>
       <c r="E134">
-        <v>12.53</v>
+        <v>22.88</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -2721,180 +2721,180 @@
         <v>0.05</v>
       </c>
       <c r="D135">
-        <v>12.37</v>
+        <v>19.27</v>
       </c>
       <c r="E135">
-        <v>11.96</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C136">
         <v>0.05</v>
       </c>
       <c r="D136">
-        <v>12.23</v>
+        <v>19.2</v>
       </c>
       <c r="E136">
-        <v>12.24</v>
+        <v>20.27</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C137">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D137">
-        <v>6.65</v>
+        <v>19.14</v>
       </c>
       <c r="E137">
-        <v>6.66</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D138">
-        <v>7.37</v>
+        <v>19.05</v>
       </c>
       <c r="E138">
-        <v>7.38</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>0.1</v>
       </c>
       <c r="D139">
-        <v>6.4</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="E139">
-        <v>6.39</v>
+        <v>17.59</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>18.64</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>18.54</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>18.38</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>16.71</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>18.34</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B144">
         <v>2</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>18.28</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>18.64</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -2905,256 +2905,256 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D146">
-        <v>38.76</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E146">
-        <v>38.11</v>
+        <v>16.97</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D147">
-        <v>39.630000000000003</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E147">
-        <v>39.54</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D148">
-        <v>37.9</v>
+        <v>17.37</v>
       </c>
       <c r="E148">
-        <v>36.799999999999997</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C149">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D149">
-        <v>38.020000000000003</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="E149">
-        <v>38.74</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B150">
         <v>2</v>
       </c>
       <c r="C150">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D150">
-        <v>36.619999999999997</v>
+        <v>16.829999999999998</v>
       </c>
       <c r="E150">
-        <v>37.21</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B151">
         <v>3</v>
       </c>
       <c r="C151">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D151">
-        <v>38.74</v>
+        <v>16.7</v>
       </c>
       <c r="E151">
-        <v>37.590000000000003</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D152">
-        <v>28.7</v>
+        <v>16.62</v>
       </c>
       <c r="E152">
-        <v>28.69</v>
+        <v>16.649999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C153">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D153">
-        <v>24.14</v>
+        <v>15.71</v>
       </c>
       <c r="E153">
-        <v>24.11</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C154">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D154">
-        <v>25.57</v>
+        <v>15.69</v>
       </c>
       <c r="E154">
-        <v>27.22</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D155">
-        <v>17.899999999999999</v>
+        <v>15.3</v>
       </c>
       <c r="E155">
-        <v>16.97</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C156">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D156">
-        <v>18.38</v>
+        <v>14.03</v>
       </c>
       <c r="E156">
-        <v>16.71</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C157">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D157">
-        <v>18.34</v>
+        <v>13.95</v>
       </c>
       <c r="E157">
-        <v>17.84</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>8.0399999999999991</v>
+        <v>13.82</v>
       </c>
       <c r="E158">
-        <v>8.06</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D159">
-        <v>7.19</v>
+        <v>13.04</v>
       </c>
       <c r="E159">
-        <v>7.74</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B160">
         <v>3</v>
       </c>
       <c r="C160">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D160">
-        <v>7</v>
+        <v>12.9</v>
       </c>
       <c r="E160">
-        <v>7.03</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -3163,384 +3163,384 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>5.85</v>
+        <v>12.84</v>
       </c>
       <c r="E161">
-        <v>5.31</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B162">
         <v>2</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D162">
-        <v>6.41</v>
+        <v>12.37</v>
       </c>
       <c r="E162">
-        <v>5.58</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B163">
         <v>3</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D163">
-        <v>5.41</v>
+        <v>12.23</v>
       </c>
       <c r="E163">
-        <v>5.28</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D164">
-        <v>35.200000000000003</v>
+        <v>11.95</v>
       </c>
       <c r="E164">
-        <v>35.21</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D165">
-        <v>33.409999999999997</v>
+        <v>11.52</v>
       </c>
       <c r="E165">
-        <v>32.74</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B166">
         <v>3</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>37.619999999999997</v>
+        <v>11.38</v>
       </c>
       <c r="E166">
-        <v>36.22</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D167">
-        <v>38.99</v>
+        <v>11.36</v>
       </c>
       <c r="E167">
-        <v>37.56</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B168">
         <v>2</v>
       </c>
       <c r="C168">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D168">
-        <v>38.58</v>
+        <v>11.18</v>
       </c>
       <c r="E168">
-        <v>38.590000000000003</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C169">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D169">
-        <v>37.299999999999997</v>
+        <v>11.06</v>
       </c>
       <c r="E169">
-        <v>37.49</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C170">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D170">
-        <v>27.87</v>
+        <v>10.6</v>
       </c>
       <c r="E170">
-        <v>26.97</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D171">
-        <v>28.42</v>
+        <v>10.49</v>
       </c>
       <c r="E171">
-        <v>29.5</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D172">
-        <v>29.9</v>
+        <v>10.37</v>
       </c>
       <c r="E172">
-        <v>28.66</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C173">
         <v>0.1</v>
       </c>
       <c r="D173">
-        <v>19.52</v>
+        <v>10.07</v>
       </c>
       <c r="E173">
-        <v>20.88</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C174">
         <v>0.1</v>
       </c>
       <c r="D174">
-        <v>22.61</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E174">
-        <v>20.39</v>
+        <v>9.8800000000000008</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175">
         <v>0.1</v>
       </c>
       <c r="D175">
-        <v>19.47</v>
+        <v>9.99</v>
       </c>
       <c r="E175">
-        <v>20.89</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="C176">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D176">
-        <v>6.03</v>
+        <v>9.9</v>
       </c>
       <c r="E176">
-        <v>6.04</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D177">
-        <v>7.28</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="E177">
-        <v>7.49</v>
+        <v>8.2799999999999994</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B178">
         <v>3</v>
       </c>
       <c r="C178">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D178">
-        <v>6.68</v>
+        <v>9.85</v>
       </c>
       <c r="E178">
-        <v>5.66</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D179">
-        <v>5.85</v>
+        <v>9.65</v>
       </c>
       <c r="E179">
-        <v>5.54</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B180">
         <v>2</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D180">
-        <v>5.59</v>
+        <v>9.57</v>
       </c>
       <c r="E180">
-        <v>5.79</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D181">
-        <v>5.85</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="E181">
-        <v>5.97</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D182">
-        <v>39.659999999999997</v>
+        <v>9.41</v>
       </c>
       <c r="E182">
-        <v>42.26</v>
+        <v>9.0399999999999991</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B183">
         <v>2</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D183">
-        <v>39.74</v>
+        <v>9.39</v>
       </c>
       <c r="E183">
-        <v>39.43</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -3548,123 +3548,123 @@
         <v>11</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D184">
-        <v>40.47</v>
+        <v>9.34</v>
       </c>
       <c r="E184">
-        <v>41.76</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C185">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D185">
-        <v>40.659999999999997</v>
+        <v>9.24</v>
       </c>
       <c r="E185">
-        <v>40</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B186">
         <v>2</v>
       </c>
       <c r="C186">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D186">
-        <v>40.479999999999997</v>
+        <v>9.1300000000000008</v>
       </c>
       <c r="E186">
-        <v>40.49</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C187">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D187">
-        <v>39.64</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="E187">
-        <v>40.090000000000003</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C188">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D188">
-        <v>19.2</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="E188">
-        <v>20.27</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B189">
         <v>2</v>
       </c>
       <c r="C189">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D189">
-        <v>19.14</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="E189">
-        <v>19.93</v>
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C190">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D190">
-        <v>19.38</v>
+        <v>8.4</v>
       </c>
       <c r="E190">
-        <v>22.88</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -3673,15 +3673,15 @@
         <v>0.1</v>
       </c>
       <c r="D191">
-        <v>11.36</v>
+        <v>8.34</v>
       </c>
       <c r="E191">
-        <v>9.25</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -3690,15 +3690,15 @@
         <v>0.1</v>
       </c>
       <c r="D192">
-        <v>9.34</v>
+        <v>8.31</v>
       </c>
       <c r="E192">
-        <v>8.48</v>
+        <v>8.1300000000000008</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -3707,678 +3707,678 @@
         <v>0.1</v>
       </c>
       <c r="D193">
-        <v>11.95</v>
+        <v>8.18</v>
       </c>
       <c r="E193">
-        <v>11.96</v>
+        <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D194">
-        <v>6.2</v>
+        <v>8.09</v>
       </c>
       <c r="E194">
-        <v>8.31</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195">
         <v>0.5</v>
       </c>
       <c r="D195">
-        <v>5.58</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="E195">
-        <v>5.57</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B196">
         <v>3</v>
       </c>
       <c r="C196">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D196">
-        <v>774</v>
+        <v>7.98</v>
       </c>
       <c r="E196">
-        <v>5.78</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D197">
-        <v>4.92</v>
+        <v>7.93</v>
       </c>
       <c r="E197">
-        <v>4.95</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D198">
-        <v>4.49</v>
+        <v>7.87</v>
       </c>
       <c r="E198">
-        <v>4.82</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D199">
-        <v>5.05</v>
+        <v>7.87</v>
       </c>
       <c r="E199">
-        <v>4.4400000000000004</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D200">
-        <v>40.880000000000003</v>
+        <v>7.83</v>
       </c>
       <c r="E200">
-        <v>39.4</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B201">
         <v>2</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D201">
-        <v>43.08</v>
+        <v>7.37</v>
       </c>
       <c r="E201">
-        <v>42.45</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D202">
-        <v>40.1</v>
+        <v>7.33</v>
       </c>
       <c r="E202">
-        <v>40.85</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
       <c r="C203">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>44.71</v>
+        <v>7.31</v>
       </c>
       <c r="E203">
-        <v>42.49</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B204">
         <v>2</v>
       </c>
       <c r="C204">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D204">
-        <v>45.03</v>
+        <v>7.28</v>
       </c>
       <c r="E204">
-        <v>42.23</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B205">
         <v>3</v>
       </c>
       <c r="C205">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D205">
-        <v>40.909999999999997</v>
+        <v>7.21</v>
       </c>
       <c r="E205">
-        <v>40.369999999999997</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
       <c r="C206">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D206">
-        <v>22.8</v>
+        <v>7.2</v>
       </c>
       <c r="E206">
-        <v>22.35</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B207">
         <v>2</v>
       </c>
       <c r="C207">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D207">
-        <v>22.5</v>
+        <v>7.19</v>
       </c>
       <c r="E207">
-        <v>23.04</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B208">
         <v>3</v>
       </c>
       <c r="C208">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D208">
-        <v>22.76</v>
+        <v>7</v>
       </c>
       <c r="E208">
-        <v>23.46</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
       <c r="C209">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D209">
-        <v>11.06</v>
+        <v>6.94</v>
       </c>
       <c r="E209">
-        <v>10.65</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C210">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D210">
-        <v>11.18</v>
+        <v>6.73</v>
       </c>
       <c r="E210">
-        <v>10.78</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B211">
         <v>3</v>
       </c>
       <c r="C211">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D211">
-        <v>10.6</v>
+        <v>6.68</v>
       </c>
       <c r="E211">
-        <v>10.43</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
       <c r="C212">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D212">
-        <v>6.21</v>
+        <v>6.65</v>
       </c>
       <c r="E212">
-        <v>6.24</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C213">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>6.17</v>
+        <v>6.62</v>
       </c>
       <c r="E213">
-        <v>5.67</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C214">
         <v>0.5</v>
       </c>
       <c r="D214">
-        <v>5.53</v>
+        <v>6.57</v>
       </c>
       <c r="E214">
-        <v>4.74</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="E215">
-        <v>6.1</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D216">
-        <v>4.9400000000000004</v>
+        <v>6.44</v>
       </c>
       <c r="E216">
-        <v>4.26</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>5.65</v>
+        <v>6.43</v>
       </c>
       <c r="E217">
-        <v>5.26</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>39.96</v>
+        <v>6.41</v>
       </c>
       <c r="E218">
-        <v>41.71</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D219">
-        <v>39.06</v>
+        <v>6.4</v>
       </c>
       <c r="E219">
-        <v>39.049999999999997</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D220">
-        <v>38.880000000000003</v>
+        <v>6.38</v>
       </c>
       <c r="E220">
-        <v>39.119999999999997</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
       <c r="C221">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>34.770000000000003</v>
+        <v>6.32</v>
       </c>
       <c r="E221">
-        <v>34.799999999999997</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B222">
         <v>2</v>
       </c>
       <c r="C222">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D222">
-        <v>35.65</v>
+        <v>6.23</v>
       </c>
       <c r="E222">
-        <v>35.619999999999997</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C223">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D223">
-        <v>36.200000000000003</v>
+        <v>6.21</v>
       </c>
       <c r="E223">
-        <v>34.700000000000003</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
       <c r="C224">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D224">
-        <v>27.02</v>
+        <v>6.2</v>
       </c>
       <c r="E224">
-        <v>26.15</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B225">
         <v>2</v>
       </c>
       <c r="C225">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D225">
-        <v>28.78</v>
+        <v>6.17</v>
       </c>
       <c r="E225">
-        <v>29.52</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C226">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D226">
-        <v>27.49</v>
+        <v>6.03</v>
       </c>
       <c r="E226">
-        <v>27.3</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C227">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D227">
-        <v>21.92</v>
+        <v>6.02</v>
       </c>
       <c r="E227">
-        <v>22.94</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C228">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D228">
-        <v>23.46</v>
+        <v>5.95</v>
       </c>
       <c r="E228">
-        <v>24.37</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C229">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>24.62</v>
+        <v>5.94</v>
       </c>
       <c r="E229">
-        <v>22.97</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C230">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>15.69</v>
+        <v>5.91</v>
       </c>
       <c r="E230">
-        <v>16.93</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C231">
         <v>0.5</v>
       </c>
       <c r="D231">
-        <v>13.95</v>
+        <v>5.9</v>
       </c>
       <c r="E231">
-        <v>13.48</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C232">
         <v>0.5</v>
       </c>
       <c r="D232">
-        <v>17.149999999999999</v>
+        <v>5.88</v>
       </c>
       <c r="E232">
-        <v>16.11</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -4387,32 +4387,32 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>12.84</v>
+        <v>5.85</v>
       </c>
       <c r="E233">
-        <v>13.55</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>13.82</v>
+        <v>5.85</v>
       </c>
       <c r="E234">
-        <v>12.68</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B235">
         <v>3</v>
@@ -4421,27 +4421,27 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>11.38</v>
+        <v>5.85</v>
       </c>
       <c r="E235">
-        <v>12.28</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D236">
-        <v>30.64</v>
+        <v>5.83</v>
       </c>
       <c r="E236">
-        <v>31.54</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -4452,579 +4452,579 @@
         <v>2</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>32.06</v>
+        <v>5.82</v>
       </c>
       <c r="E237">
-        <v>31.91</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B238">
         <v>3</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D238">
-        <v>33.64</v>
+        <v>5.72</v>
       </c>
       <c r="E238">
-        <v>34.090000000000003</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C239">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D239">
-        <v>33.36</v>
+        <v>5.7</v>
       </c>
       <c r="E239">
-        <v>33.630000000000003</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B240">
         <v>2</v>
       </c>
       <c r="C240">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D240">
-        <v>34.58</v>
+        <v>5.7</v>
       </c>
       <c r="E240">
-        <v>34.32</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B241">
         <v>3</v>
       </c>
       <c r="C241">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>34.020000000000003</v>
+        <v>5.65</v>
       </c>
       <c r="E241">
-        <v>34.46</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C242">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D242">
-        <v>18.54</v>
+        <v>5.64</v>
       </c>
       <c r="E242">
-        <v>18.55</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C243">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D243">
-        <v>18.28</v>
+        <v>5.62</v>
       </c>
       <c r="E243">
-        <v>20.96</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C244">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>17.899999999999999</v>
+        <v>5.59</v>
       </c>
       <c r="E244">
-        <v>19.13</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C245">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D245">
-        <v>10.49</v>
+        <v>5.58</v>
       </c>
       <c r="E245">
-        <v>11.22</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B246">
         <v>2</v>
       </c>
       <c r="C246">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D246">
-        <v>9.57</v>
+        <v>5.58</v>
       </c>
       <c r="E246">
-        <v>9.82</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B247">
         <v>3</v>
       </c>
       <c r="C247">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D247">
-        <v>12.9</v>
+        <v>5.53</v>
       </c>
       <c r="E247">
-        <v>11.51</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B248">
         <v>1</v>
       </c>
       <c r="C248">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>5.9</v>
+        <v>5.52</v>
       </c>
       <c r="E248">
-        <v>6.01</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C249">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>5.88</v>
+        <v>5.5</v>
       </c>
       <c r="E249">
-        <v>5.8</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C250">
         <v>0.5</v>
       </c>
       <c r="D250">
-        <v>7.33</v>
+        <v>5.44</v>
       </c>
       <c r="E250">
-        <v>6.04</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D251">
-        <v>4.47</v>
+        <v>5.41</v>
       </c>
       <c r="E251">
-        <v>4.8</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>5.82</v>
+        <v>5.41</v>
       </c>
       <c r="E252">
-        <v>5.54</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D253">
-        <v>5.0999999999999996</v>
+        <v>5.36</v>
       </c>
       <c r="E253">
-        <v>5.67</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>32.450000000000003</v>
+        <v>5.35</v>
       </c>
       <c r="E254">
-        <v>32.44</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D255">
-        <v>34.380000000000003</v>
+        <v>5.34</v>
       </c>
       <c r="E255">
-        <v>32.630000000000003</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D256">
-        <v>33.64</v>
+        <v>5.2</v>
       </c>
       <c r="E256">
-        <v>33.630000000000003</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C257">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D257">
-        <v>33.67</v>
+        <v>5.17</v>
       </c>
       <c r="E257">
-        <v>33.64</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C258">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>35.979999999999997</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E258">
-        <v>37.39</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C259">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="D259">
-        <v>35.090000000000003</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="E259">
-        <v>35.119999999999997</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C260">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>20.149999999999999</v>
+        <v>5.05</v>
       </c>
       <c r="E260">
-        <v>20.190000000000001</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C261">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>19.93</v>
+        <v>5.04</v>
       </c>
       <c r="E261">
-        <v>20.25</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C262">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>18.64</v>
+        <v>5</v>
       </c>
       <c r="E262">
-        <v>19.38</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C263">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>7.87</v>
+        <v>4.95</v>
       </c>
       <c r="E263">
-        <v>9.66</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B264">
         <v>2</v>
       </c>
       <c r="C264">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>10.07</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="E264">
-        <v>8.57</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C265">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>11.52</v>
+        <v>4.92</v>
       </c>
       <c r="E265">
-        <v>9.98</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C266">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>5.62</v>
+        <v>4.84</v>
       </c>
       <c r="E266">
-        <v>5.89</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B267">
         <v>2</v>
       </c>
       <c r="C267">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>6.23</v>
+        <v>4.83</v>
       </c>
       <c r="E267">
-        <v>6.08</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B268">
         <v>3</v>
       </c>
       <c r="C268">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>6.73</v>
+        <v>4.49</v>
       </c>
       <c r="E268">
-        <v>6.27</v>
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>5.94</v>
+        <v>4.49</v>
       </c>
       <c r="E269">
-        <v>4.58</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>4.47</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -5033,265 +5033,265 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>5.5</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="E271">
-        <v>5.61</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>32.74</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="E272">
-        <v>33.119999999999997</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>32.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="E273">
-        <v>33.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>33.020000000000003</v>
+        <v>0</v>
       </c>
       <c r="E274">
-        <v>33.020000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C275">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>33.9</v>
+        <v>0</v>
       </c>
       <c r="E275">
-        <v>35.479999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C276">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>35.4</v>
+        <v>0</v>
       </c>
       <c r="E276">
-        <v>35.229999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B277">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C277">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>33.020000000000003</v>
+        <v>0</v>
       </c>
       <c r="E277">
-        <v>32.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C278">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>19.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="E278">
-        <v>18.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C279">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E279">
-        <v>18.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B280">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C280">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="D280">
-        <v>14.03</v>
+        <v>0</v>
       </c>
       <c r="E280">
-        <v>14.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C281">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D281">
-        <v>10.37</v>
+        <v>0</v>
       </c>
       <c r="E281">
-        <v>9.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C282">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D282">
-        <v>9.99</v>
+        <v>0</v>
       </c>
       <c r="E282">
-        <v>8.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B283">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C283">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D283">
-        <v>8.18</v>
+        <v>0</v>
       </c>
       <c r="E283">
-        <v>9.6199999999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C284">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>5.0599999999999996</v>
+        <v>0</v>
       </c>
       <c r="E284">
-        <v>6.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C285">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="E285">
-        <v>4.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>5.64</v>
+        <v>0</v>
       </c>
       <c r="E286">
-        <v>5.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -5348,7 +5348,7 @@
   </sheetData>
   <autoFilter ref="A1:E289" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E289">
-      <sortCondition ref="A1:A289"/>
+      <sortCondition descending="1" ref="D1:D289"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
